--- a/form_reporting_templates/Form-3CE-multiple.xlsx
+++ b/form_reporting_templates/Form-3CE-multiple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC1E79F-B294-4C46-AE14-00E37CE6307A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD2699-9AC1-4EE1-83DB-89D28F14A00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D/L7RJXD1bM7VSukp9nBPXamnS2mKwuV7VHnNS9bopG+/gy69KSPIxEDp2efAHIwM2oGVTU5uyDQpmk0iVlvLw==" workbookSaltValue="ZXtEfnD7/zBb2FnSisyo4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -117,12 +117,6 @@
     <t>Grid</t>
   </si>
   <si>
-    <t>IOTC form 3-CE | data</t>
-  </si>
-  <si>
-    <t>IOTC form 3-CE | metadata</t>
-  </si>
-  <si>
     <t>Catches by species</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
   </si>
   <si>
     <t>Main stratum</t>
-  </si>
-  <si>
-    <t>3-CE-multiple</t>
   </si>
   <si>
     <t>%</t>
@@ -154,6 +145,15 @@
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>IOTC Form 3CE | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 3CE | metadata</t>
+  </si>
+  <si>
+    <t>3CE-multiple</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1474,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="96" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -1498,14 +1498,14 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1546,7 +1546,7 @@
       <c r="D8" s="95"/>
       <c r="E8" s="10"/>
       <c r="F8" s="95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8" s="95"/>
       <c r="H8" s="11"/>
@@ -1567,12 +1567,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="11"/>
@@ -1589,7 +1589,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="10"/>
@@ -1660,7 +1660,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="10"/>
@@ -1740,7 +1740,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jFEZKqizOB5Wvc3rN32Rub0xcUM09FeamT9C/+O/lWbC+shaLdfWwDi+xAk5lmawDUlF5En22Zd9lb9sivM6qA==" saltValue="8GQh4Kj+fV5o/CPRTSsgMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vhkGXKy9j6yIFvM76H4eluuY/9Hao/h/iMZSRf547y48EYKvzgU7dYZ+TqPd7RLku1RIBOrJ8EuY+/9sJALFvA==" saltValue="IXtcLMrR6DJUU8YmhtXQ8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="2" spans="2:118" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="96" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -1946,7 +1946,7 @@
       <c r="Q3" s="100"/>
       <c r="R3" s="39"/>
       <c r="S3" s="102" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T3" s="103"/>
       <c r="U3" s="103"/>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="4" spans="2:118" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="105" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="106"/>
       <c r="D4" s="106"/>
@@ -2074,7 +2074,7 @@
       <c r="P4" s="109"/>
       <c r="Q4" s="110"/>
       <c r="R4" s="80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="26"/>
@@ -2200,13 +2200,13 @@
         <v>22</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J5" s="72" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="73" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
@@ -12260,7 +12260,7 @@
       <c r="DN1048576" s="84"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zkJPS/NhdoRFCIiYejzV2CZOJncT+EGv9M0XUC4ocNJddgQSC13zcJZke8u15u4CUF4D+9r219rElKVpABdmWw==" saltValue="KwlrYc/bGAbn2BN8y2fu7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CpS3KGBp4xTIFnZNiF5ER/acQgr3ckXL23oPW0sfMvmilZkJ5TZekYM95R2f/VQ7GmjKv3aneQTvtPM4Xobv1g==" saltValue="FQ34kWeNcbOCSvKguY1BCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="S3:DN3"/>
     <mergeCell ref="B4:E4"/>

--- a/form_reporting_templates/Form-3CE-multiple.xlsx
+++ b/form_reporting_templates/Form-3CE-multiple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD2699-9AC1-4EE1-83DB-89D28F14A00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A32689-E9C0-4AA2-ADDA-7452238D32D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D/L7RJXD1bM7VSukp9nBPXamnS2mKwuV7VHnNS9bopG+/gy69KSPIxEDp2efAHIwM2oGVTU5uyDQpmk0iVlvLw==" workbookSaltValue="ZXtEfnD7/zBb2FnSisyo4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>General information</t>
-  </si>
-  <si>
-    <t>Flag country</t>
   </si>
   <si>
     <t>Reporting year</t>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>3CE-multiple</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1474,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -1495,17 +1495,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1521,7 +1521,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1546,7 +1546,7 @@
       <c r="D8" s="95"/>
       <c r="E8" s="10"/>
       <c r="F8" s="95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="95"/>
       <c r="H8" s="11"/>
@@ -1567,12 +1567,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="11"/>
@@ -1589,7 +1589,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="10"/>
@@ -1600,7 +1600,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="10"/>
@@ -1649,7 +1649,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="10"/>
@@ -1660,7 +1660,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="10"/>
@@ -1671,7 +1671,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="64" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="10"/>
@@ -1700,7 +1700,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
@@ -1740,7 +1740,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vhkGXKy9j6yIFvM76H4eluuY/9Hao/h/iMZSRf547y48EYKvzgU7dYZ+TqPd7RLku1RIBOrJ8EuY+/9sJALFvA==" saltValue="IXtcLMrR6DJUU8YmhtXQ8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Tge1GOMd3ohnaOnFghK+1DRpb+LfFkEC6kI07TvPQBNdJ2nHxJyfJR8GB5kZBtMjGbfmcAjBle2alG953hotDQ==" saltValue="HnxmWWjjBwhK73fJLueAHA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1754,7 +1754,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{C0FCC597-9BD9-4C0D-B82C-E95E786F2247}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{586DFF05-9235-4866-B8E6-805BD36FE404}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{586DFF05-9235-4866-B8E6-805BD36FE404}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="2" spans="2:118" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -1946,7 +1946,7 @@
       <c r="Q3" s="100"/>
       <c r="R3" s="39"/>
       <c r="S3" s="102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T3" s="103"/>
       <c r="U3" s="103"/>
@@ -2050,23 +2050,23 @@
     </row>
     <row r="4" spans="2:118" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="106"/>
       <c r="D4" s="106"/>
       <c r="E4" s="107"/>
       <c r="F4" s="105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="106"/>
       <c r="H4" s="106"/>
       <c r="I4" s="107"/>
       <c r="J4" s="105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="107"/>
       <c r="L4" s="108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" s="109"/>
       <c r="N4" s="109"/>
@@ -2074,7 +2074,7 @@
       <c r="P4" s="109"/>
       <c r="Q4" s="110"/>
       <c r="R4" s="80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="26"/>
@@ -2179,55 +2179,55 @@
     </row>
     <row r="5" spans="2:118" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="77" t="s">
-        <v>6</v>
+      <c r="F5" s="74" t="s">
+        <v>19</v>
       </c>
-      <c r="D5" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="74" t="s">
+      <c r="G5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="H5" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="79" t="s">
-        <v>22</v>
-      </c>
       <c r="I5" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" s="73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="68" t="s">
-        <v>14</v>
-      </c>
       <c r="O5" s="65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P5" s="67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R5" s="81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S5" s="28"/>
       <c r="T5" s="29"/>
